--- a/dataset/wikisql/dataset_tables/table_10118412_6.xlsx
+++ b/dataset/wikisql/dataset_tables/table_10118412_6.xlsx
@@ -1,37 +1,232 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\micha\homeworks\NLP\AgentToBeNamed\dataset\wikisql\dataset_tables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B390D656-8EC5-4692-8811-2595286F4487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+  <si>
+    <t>State/Territory</t>
+  </si>
+  <si>
+    <t>Asian American Population (2010 Census)</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>Filipino</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>Other Asian</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +241,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,1831 +565,1554 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>State/Territory</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Asian American Population (2010 Census)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Filipino</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Indian</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Japanese</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Korean</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Vietnamese</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Other Asian</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Alabama</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
         <v>67036</v>
       </c>
-      <c r="D2" t="n">
+      <c r="C2">
         <v>11154</v>
       </c>
-      <c r="E2" t="n">
+      <c r="D2">
         <v>8224</v>
       </c>
-      <c r="F2" t="n">
+      <c r="E2">
         <v>14951</v>
       </c>
-      <c r="G2" t="n">
+      <c r="F2">
         <v>4336</v>
       </c>
-      <c r="H2" t="n">
+      <c r="G2">
         <v>10624</v>
       </c>
-      <c r="I2" t="n">
+      <c r="H2">
         <v>8488</v>
       </c>
-      <c r="J2" t="n">
+      <c r="I2">
         <v>9259</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Alaska</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
         <v>50402</v>
       </c>
-      <c r="D3" t="n">
+      <c r="C3">
         <v>3726</v>
       </c>
-      <c r="E3" t="n">
+      <c r="D3">
         <v>25424</v>
       </c>
-      <c r="F3" t="n">
+      <c r="E3">
         <v>1911</v>
       </c>
-      <c r="G3" t="n">
+      <c r="F3">
         <v>3926</v>
       </c>
-      <c r="H3" t="n">
+      <c r="G3">
         <v>6542</v>
       </c>
-      <c r="I3" t="n">
+      <c r="H3">
         <v>1446</v>
       </c>
-      <c r="J3" t="n">
+      <c r="I3">
         <v>7427</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Arizona</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
         <v>230907</v>
       </c>
-      <c r="D4" t="n">
+      <c r="C4">
         <v>42331</v>
       </c>
-      <c r="E4" t="n">
+      <c r="D4">
         <v>53067</v>
       </c>
-      <c r="F4" t="n">
+      <c r="E4">
         <v>40510</v>
       </c>
-      <c r="G4" t="n">
+      <c r="F4">
         <v>19611</v>
       </c>
-      <c r="H4" t="n">
+      <c r="G4">
         <v>21125</v>
       </c>
-      <c r="I4" t="n">
+      <c r="H4">
         <v>27872</v>
       </c>
-      <c r="J4" t="n">
+      <c r="I4">
         <v>26391</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Arkansas</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
         <v>44943</v>
       </c>
-      <c r="D5" t="n">
+      <c r="C5">
         <v>6301</v>
       </c>
-      <c r="E5" t="n">
+      <c r="D5">
         <v>6396</v>
       </c>
-      <c r="F5" t="n">
+      <c r="E5">
         <v>7973</v>
       </c>
-      <c r="G5" t="n">
+      <c r="F5">
         <v>2384</v>
       </c>
-      <c r="H5" t="n">
+      <c r="G5">
         <v>3247</v>
       </c>
-      <c r="I5" t="n">
+      <c r="H5">
         <v>6302</v>
       </c>
-      <c r="J5" t="n">
+      <c r="I5">
         <v>12340</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>California</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
         <v>5556592</v>
       </c>
-      <c r="D6" t="n">
+      <c r="C6">
         <v>1451537</v>
       </c>
-      <c r="E6" t="n">
+      <c r="D6">
         <v>1474707</v>
       </c>
-      <c r="F6" t="n">
+      <c r="E6">
         <v>590445</v>
       </c>
-      <c r="G6" t="n">
+      <c r="F6">
         <v>428014</v>
       </c>
-      <c r="H6" t="n">
+      <c r="G6">
         <v>505225</v>
       </c>
-      <c r="I6" t="n">
+      <c r="H6">
         <v>647589</v>
       </c>
-      <c r="J6" t="n">
+      <c r="I6">
         <v>459075</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Colorado</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
         <v>185589</v>
       </c>
-      <c r="D7" t="n">
+      <c r="C7">
         <v>33344</v>
       </c>
-      <c r="E7" t="n">
+      <c r="D7">
         <v>26242</v>
       </c>
-      <c r="F7" t="n">
+      <c r="E7">
         <v>24135</v>
       </c>
-      <c r="G7" t="n">
+      <c r="F7">
         <v>22714</v>
       </c>
-      <c r="H7" t="n">
+      <c r="G7">
         <v>28177</v>
       </c>
-      <c r="I7" t="n">
+      <c r="H7">
         <v>23933</v>
       </c>
-      <c r="J7" t="n">
+      <c r="I7">
         <v>27044</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Connecticut</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
         <v>157088</v>
       </c>
-      <c r="D8" t="n">
+      <c r="C8">
         <v>36483</v>
       </c>
-      <c r="E8" t="n">
+      <c r="D8">
         <v>16402</v>
       </c>
-      <c r="F8" t="n">
+      <c r="E8">
         <v>50806</v>
       </c>
-      <c r="G8" t="n">
+      <c r="F8">
         <v>6203</v>
       </c>
-      <c r="H8" t="n">
+      <c r="G8">
         <v>11760</v>
       </c>
-      <c r="I8" t="n">
+      <c r="H8">
         <v>10804</v>
       </c>
-      <c r="J8" t="n">
+      <c r="I8">
         <v>24630</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Delaware</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
         <v>33701</v>
       </c>
-      <c r="D9" t="n">
+      <c r="C9">
         <v>7033</v>
       </c>
-      <c r="E9" t="n">
+      <c r="D9">
         <v>4637</v>
       </c>
-      <c r="F9" t="n">
+      <c r="E9">
         <v>12344</v>
       </c>
-      <c r="G9" t="n">
+      <c r="F9">
         <v>1196</v>
       </c>
-      <c r="H9" t="n">
+      <c r="G9">
         <v>3099</v>
       </c>
-      <c r="I9" t="n">
+      <c r="H9">
         <v>1688</v>
       </c>
-      <c r="J9" t="n">
+      <c r="I9">
         <v>3704</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>District of Columbia</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
         <v>26857</v>
       </c>
-      <c r="D10" t="n">
+      <c r="C10">
         <v>6583</v>
       </c>
-      <c r="E10" t="n">
+      <c r="D10">
         <v>3670</v>
       </c>
-      <c r="F10" t="n">
+      <c r="E10">
         <v>6417</v>
       </c>
-      <c r="G10" t="n">
+      <c r="F10">
         <v>2010</v>
       </c>
-      <c r="H10" t="n">
+      <c r="G10">
         <v>2990</v>
       </c>
-      <c r="I10" t="n">
+      <c r="H10">
         <v>1856</v>
       </c>
-      <c r="J10" t="n">
+      <c r="I10">
         <v>3331</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Florida</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
         <v>573083</v>
       </c>
-      <c r="D11" t="n">
+      <c r="C11">
         <v>94244</v>
       </c>
-      <c r="E11" t="n">
+      <c r="D11">
         <v>122691</v>
       </c>
-      <c r="F11" t="n">
+      <c r="E11">
         <v>151438</v>
       </c>
-      <c r="G11" t="n">
+      <c r="F11">
         <v>25747</v>
       </c>
-      <c r="H11" t="n">
+      <c r="G11">
         <v>35629</v>
       </c>
-      <c r="I11" t="n">
+      <c r="H11">
         <v>65772</v>
       </c>
-      <c r="J11" t="n">
+      <c r="I11">
         <v>77562</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
         <v>365497</v>
       </c>
-      <c r="D12" t="n">
+      <c r="C12">
         <v>54298</v>
       </c>
-      <c r="E12" t="n">
+      <c r="D12">
         <v>28528</v>
       </c>
-      <c r="F12" t="n">
+      <c r="E12">
         <v>105444</v>
       </c>
-      <c r="G12" t="n">
+      <c r="F12">
         <v>14247</v>
       </c>
-      <c r="H12" t="n">
+      <c r="G12">
         <v>60836</v>
       </c>
-      <c r="I12" t="n">
+      <c r="H12">
         <v>49264</v>
       </c>
-      <c r="J12" t="n">
+      <c r="I12">
         <v>52880</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Hawaii</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
         <v>780968</v>
       </c>
-      <c r="D13" t="n">
+      <c r="C13">
         <v>199751</v>
       </c>
-      <c r="E13" t="n">
+      <c r="D13">
         <v>342095</v>
       </c>
-      <c r="F13" t="n">
+      <c r="E13">
         <v>4737</v>
       </c>
-      <c r="G13" t="n">
+      <c r="F13">
         <v>312292</v>
       </c>
-      <c r="H13" t="n">
+      <c r="G13">
         <v>48699</v>
       </c>
-      <c r="I13" t="n">
+      <c r="H13">
         <v>13266</v>
       </c>
-      <c r="J13" t="n">
+      <c r="I13">
         <v>139872</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Idaho</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
         <v>29698</v>
       </c>
-      <c r="D14" t="n">
+      <c r="C14">
         <v>5473</v>
       </c>
-      <c r="E14" t="n">
+      <c r="D14">
         <v>6211</v>
       </c>
-      <c r="F14" t="n">
+      <c r="E14">
         <v>2786</v>
       </c>
-      <c r="G14" t="n">
+      <c r="F14">
         <v>5698</v>
       </c>
-      <c r="H14" t="n">
+      <c r="G14">
         <v>2806</v>
       </c>
-      <c r="I14" t="n">
+      <c r="H14">
         <v>2154</v>
       </c>
-      <c r="J14" t="n">
+      <c r="I14">
         <v>4570</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Illinois</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
         <v>668694</v>
       </c>
-      <c r="D15" t="n">
+      <c r="C15">
         <v>119308</v>
       </c>
-      <c r="E15" t="n">
+      <c r="D15">
         <v>139090</v>
       </c>
-      <c r="F15" t="n">
+      <c r="E15">
         <v>203669</v>
       </c>
-      <c r="G15" t="n">
+      <c r="F15">
         <v>28623</v>
       </c>
-      <c r="H15" t="n">
+      <c r="G15">
         <v>70263</v>
       </c>
-      <c r="I15" t="n">
+      <c r="H15">
         <v>29101</v>
       </c>
-      <c r="J15" t="n">
+      <c r="I15">
         <v>78640</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Indiana</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
         <v>126750</v>
       </c>
-      <c r="D16" t="n">
+      <c r="C16">
         <v>26038</v>
       </c>
-      <c r="E16" t="n">
+      <c r="D16">
         <v>16988</v>
       </c>
-      <c r="F16" t="n">
+      <c r="E16">
         <v>30947</v>
       </c>
-      <c r="G16" t="n">
+      <c r="F16">
         <v>8437</v>
       </c>
-      <c r="H16" t="n">
+      <c r="G16">
         <v>13685</v>
       </c>
-      <c r="I16" t="n">
+      <c r="H16">
         <v>8175</v>
       </c>
-      <c r="J16" t="n">
+      <c r="I16">
         <v>22480</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Iowa</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
         <v>64512</v>
       </c>
-      <c r="D17" t="n">
+      <c r="C17">
         <v>11494</v>
       </c>
-      <c r="E17" t="n">
+      <c r="D17">
         <v>6026</v>
       </c>
-      <c r="F17" t="n">
+      <c r="E17">
         <v>12525</v>
       </c>
-      <c r="G17" t="n">
+      <c r="F17">
         <v>2854</v>
       </c>
-      <c r="H17" t="n">
+      <c r="G17">
         <v>7375</v>
       </c>
-      <c r="I17" t="n">
+      <c r="H17">
         <v>9543</v>
       </c>
-      <c r="J17" t="n">
+      <c r="I17">
         <v>14695</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Kansas</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
         <v>83930</v>
       </c>
-      <c r="D18" t="n">
+      <c r="C18">
         <v>13448</v>
       </c>
-      <c r="E18" t="n">
+      <c r="D18">
         <v>9399</v>
       </c>
-      <c r="F18" t="n">
+      <c r="E18">
         <v>15644</v>
       </c>
-      <c r="G18" t="n">
+      <c r="F18">
         <v>4178</v>
       </c>
-      <c r="H18" t="n">
+      <c r="G18">
         <v>7756</v>
       </c>
-      <c r="I18" t="n">
+      <c r="H18">
         <v>16074</v>
       </c>
-      <c r="J18" t="n">
+      <c r="I18">
         <v>17431</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Kentucky</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
         <v>62029</v>
       </c>
-      <c r="D19" t="n">
+      <c r="C19">
         <v>10512</v>
       </c>
-      <c r="E19" t="n">
+      <c r="D19">
         <v>8402</v>
       </c>
-      <c r="F19" t="n">
+      <c r="E19">
         <v>14253</v>
       </c>
-      <c r="G19" t="n">
+      <c r="F19">
         <v>6197</v>
       </c>
-      <c r="H19" t="n">
+      <c r="G19">
         <v>7264</v>
       </c>
-      <c r="I19" t="n">
+      <c r="H19">
         <v>5813</v>
       </c>
-      <c r="J19" t="n">
+      <c r="I19">
         <v>9588</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Louisiana</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20">
         <v>84335</v>
       </c>
-      <c r="D20" t="n">
+      <c r="C20">
         <v>11953</v>
       </c>
-      <c r="E20" t="n">
+      <c r="D20">
         <v>10243</v>
       </c>
-      <c r="F20" t="n">
+      <c r="E20">
         <v>13147</v>
       </c>
-      <c r="G20" t="n">
+      <c r="F20">
         <v>3117</v>
       </c>
-      <c r="H20" t="n">
+      <c r="G20">
         <v>4752</v>
       </c>
-      <c r="I20" t="n">
+      <c r="H20">
         <v>30202</v>
       </c>
-      <c r="J20" t="n">
+      <c r="I20">
         <v>10921</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Maine</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
         <v>18333</v>
       </c>
-      <c r="D21" t="n">
+      <c r="C21">
         <v>4390</v>
       </c>
-      <c r="E21" t="n">
+      <c r="D21">
         <v>2918</v>
       </c>
-      <c r="F21" t="n">
+      <c r="E21">
         <v>2397</v>
       </c>
-      <c r="G21" t="n">
+      <c r="F21">
         <v>1181</v>
       </c>
-      <c r="H21" t="n">
+      <c r="G21">
         <v>1741</v>
       </c>
-      <c r="I21" t="n">
+      <c r="H21">
         <v>2170</v>
       </c>
-      <c r="J21" t="n">
+      <c r="I21">
         <v>3536</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Maryland</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22">
         <v>370044</v>
       </c>
-      <c r="D22" t="n">
+      <c r="C22">
         <v>79660</v>
       </c>
-      <c r="E22" t="n">
+      <c r="D22">
         <v>56909</v>
       </c>
-      <c r="F22" t="n">
+      <c r="E22">
         <v>88709</v>
       </c>
-      <c r="G22" t="n">
+      <c r="F22">
         <v>12826</v>
       </c>
-      <c r="H22" t="n">
+      <c r="G22">
         <v>55051</v>
       </c>
-      <c r="I22" t="n">
+      <c r="H22">
         <v>26605</v>
       </c>
-      <c r="J22" t="n">
+      <c r="I22">
         <v>50284</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Massachusetts</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23">
         <v>394211</v>
       </c>
-      <c r="D23" t="n">
+      <c r="C23">
         <v>136866</v>
       </c>
-      <c r="E23" t="n">
+      <c r="D23">
         <v>18673</v>
       </c>
-      <c r="F23" t="n">
+      <c r="E23">
         <v>85441</v>
       </c>
-      <c r="G23" t="n">
+      <c r="F23">
         <v>15358</v>
       </c>
-      <c r="H23" t="n">
+      <c r="G23">
         <v>28904</v>
       </c>
-      <c r="I23" t="n">
+      <c r="H23">
         <v>47636</v>
       </c>
-      <c r="J23" t="n">
+      <c r="I23">
         <v>61343</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Michigan</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
         <v>289607</v>
       </c>
-      <c r="D24" t="n">
+      <c r="C24">
         <v>51525</v>
       </c>
-      <c r="E24" t="n">
+      <c r="D24">
         <v>32324</v>
       </c>
-      <c r="F24" t="n">
+      <c r="E24">
         <v>84750</v>
       </c>
-      <c r="G24" t="n">
+      <c r="F24">
         <v>17412</v>
       </c>
-      <c r="H24" t="n">
+      <c r="G24">
         <v>30292</v>
       </c>
-      <c r="I24" t="n">
+      <c r="H24">
         <v>19456</v>
       </c>
-      <c r="J24" t="n">
+      <c r="I24">
         <v>53848</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Minnesota</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
         <v>247132</v>
       </c>
-      <c r="D25" t="n">
+      <c r="C25">
         <v>30047</v>
       </c>
-      <c r="E25" t="n">
+      <c r="D25">
         <v>15660</v>
       </c>
-      <c r="F25" t="n">
+      <c r="E25">
         <v>38097</v>
       </c>
-      <c r="G25" t="n">
+      <c r="F25">
         <v>7995</v>
       </c>
-      <c r="H25" t="n">
+      <c r="G25">
         <v>20995</v>
       </c>
-      <c r="I25" t="n">
+      <c r="H25">
         <v>27086</v>
       </c>
-      <c r="J25" t="n">
+      <c r="I25">
         <v>107252</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Mississippi</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26">
         <v>32560</v>
       </c>
-      <c r="D26" t="n">
+      <c r="C26">
         <v>5333</v>
       </c>
-      <c r="E26" t="n">
+      <c r="D26">
         <v>5638</v>
       </c>
-      <c r="F26" t="n">
+      <c r="E26">
         <v>6458</v>
       </c>
-      <c r="G26" t="n">
+      <c r="F26">
         <v>807</v>
       </c>
-      <c r="H26" t="n">
+      <c r="G26">
         <v>2301</v>
       </c>
-      <c r="I26" t="n">
+      <c r="H26">
         <v>7721</v>
       </c>
-      <c r="J26" t="n">
+      <c r="I26">
         <v>4302</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Missouri</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27">
         <v>123571</v>
       </c>
-      <c r="D27" t="n">
+      <c r="C27">
         <v>26001</v>
       </c>
-      <c r="E27" t="n">
+      <c r="D27">
         <v>17706</v>
       </c>
-      <c r="F27" t="n">
+      <c r="E27">
         <v>26263</v>
       </c>
-      <c r="G27" t="n">
+      <c r="F27">
         <v>7084</v>
       </c>
-      <c r="H27" t="n">
+      <c r="G27">
         <v>12689</v>
       </c>
-      <c r="I27" t="n">
+      <c r="H27">
         <v>16530</v>
       </c>
-      <c r="J27" t="n">
+      <c r="I27">
         <v>17298</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Montana</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28">
         <v>10482</v>
       </c>
-      <c r="D28" t="n">
+      <c r="C28">
         <v>1919</v>
       </c>
-      <c r="E28" t="n">
+      <c r="D28">
         <v>2829</v>
       </c>
-      <c r="F28" t="n">
+      <c r="E28">
         <v>930</v>
       </c>
-      <c r="G28" t="n">
+      <c r="F28">
         <v>1854</v>
       </c>
-      <c r="H28" t="n">
+      <c r="G28">
         <v>1369</v>
       </c>
-      <c r="I28" t="n">
+      <c r="H28">
         <v>481</v>
       </c>
-      <c r="J28" t="n">
+      <c r="I28">
         <v>1100</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Nebraska</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29">
         <v>40561</v>
       </c>
-      <c r="D29" t="n">
+      <c r="C29">
         <v>5730</v>
       </c>
-      <c r="E29" t="n">
+      <c r="D29">
         <v>4900</v>
       </c>
-      <c r="F29" t="n">
+      <c r="E29">
         <v>6708</v>
       </c>
-      <c r="G29" t="n">
+      <c r="F29">
         <v>3106</v>
       </c>
-      <c r="H29" t="n">
+      <c r="G29">
         <v>3815</v>
       </c>
-      <c r="I29" t="n">
+      <c r="H29">
         <v>8677</v>
       </c>
-      <c r="J29" t="n">
+      <c r="I29">
         <v>7625</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Nevada</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30">
         <v>242916</v>
       </c>
-      <c r="D30" t="n">
+      <c r="C30">
         <v>39448</v>
       </c>
-      <c r="E30" t="n">
+      <c r="D30">
         <v>123891</v>
       </c>
-      <c r="F30" t="n">
+      <c r="E30">
         <v>14290</v>
       </c>
-      <c r="G30" t="n">
+      <c r="F30">
         <v>21364</v>
       </c>
-      <c r="H30" t="n">
+      <c r="G30">
         <v>18518</v>
       </c>
-      <c r="I30" t="n">
+      <c r="H30">
         <v>12366</v>
       </c>
-      <c r="J30" t="n">
+      <c r="I30">
         <v>13039</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>New Hampshire</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31">
         <v>34522</v>
       </c>
-      <c r="D31" t="n">
+      <c r="C31">
         <v>7652</v>
       </c>
-      <c r="E31" t="n">
+      <c r="D31">
         <v>3369</v>
       </c>
-      <c r="F31" t="n">
+      <c r="E31">
         <v>9075</v>
       </c>
-      <c r="G31" t="n">
+      <c r="F31">
         <v>1842</v>
       </c>
-      <c r="H31" t="n">
+      <c r="G31">
         <v>3021</v>
       </c>
-      <c r="I31" t="n">
+      <c r="H31">
         <v>2907</v>
       </c>
-      <c r="J31" t="n">
+      <c r="I31">
         <v>6686</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>New Jersey</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32">
         <v>795163</v>
       </c>
-      <c r="D32" t="n">
+      <c r="C32">
         <v>149356</v>
       </c>
-      <c r="E32" t="n">
+      <c r="D32">
         <v>126793</v>
       </c>
-      <c r="F32" t="n">
+      <c r="E32">
         <v>311310</v>
       </c>
-      <c r="G32" t="n">
+      <c r="F32">
         <v>19710</v>
       </c>
-      <c r="H32" t="n">
+      <c r="G32">
         <v>100334</v>
       </c>
-      <c r="I32" t="n">
+      <c r="H32">
         <v>23535</v>
       </c>
-      <c r="J32" t="n">
+      <c r="I32">
         <v>64125</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>New Mexico</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
         <v>40456</v>
       </c>
-      <c r="D33" t="n">
+      <c r="C33">
         <v>7668</v>
       </c>
-      <c r="E33" t="n">
+      <c r="D33">
         <v>8535</v>
       </c>
-      <c r="F33" t="n">
+      <c r="E33">
         <v>5727</v>
       </c>
-      <c r="G33" t="n">
+      <c r="F33">
         <v>4889</v>
       </c>
-      <c r="H33" t="n">
+      <c r="G33">
         <v>3760</v>
       </c>
-      <c r="I33" t="n">
+      <c r="H33">
         <v>5403</v>
       </c>
-      <c r="J33" t="n">
+      <c r="I33">
         <v>4474</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>New York</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
         <v>1579494</v>
       </c>
-      <c r="D34" t="n">
+      <c r="C34">
         <v>615932</v>
       </c>
-      <c r="E34" t="n">
+      <c r="D34">
         <v>126129</v>
       </c>
-      <c r="F34" t="n">
+      <c r="E34">
         <v>368767</v>
       </c>
-      <c r="G34" t="n">
+      <c r="F34">
         <v>51781</v>
       </c>
-      <c r="H34" t="n">
+      <c r="G34">
         <v>153609</v>
       </c>
-      <c r="I34" t="n">
+      <c r="H34">
         <v>34510</v>
       </c>
-      <c r="J34" t="n">
+      <c r="I34">
         <v>228763</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>North Carolina</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
         <v>252585</v>
       </c>
-      <c r="D35" t="n">
+      <c r="C35">
         <v>40820</v>
       </c>
-      <c r="E35" t="n">
+      <c r="D35">
         <v>29314</v>
       </c>
-      <c r="F35" t="n">
+      <c r="E35">
         <v>63852</v>
       </c>
-      <c r="G35" t="n">
+      <c r="F35">
         <v>12878</v>
       </c>
-      <c r="H35" t="n">
+      <c r="G35">
         <v>25420</v>
       </c>
-      <c r="I35" t="n">
+      <c r="H35">
         <v>30665</v>
       </c>
-      <c r="J35" t="n">
+      <c r="I35">
         <v>49636</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>North Dakota</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
         <v>9193</v>
       </c>
-      <c r="D36" t="n">
+      <c r="C36">
         <v>1762</v>
       </c>
-      <c r="E36" t="n">
+      <c r="D36">
         <v>1704</v>
       </c>
-      <c r="F36" t="n">
+      <c r="E36">
         <v>1740</v>
       </c>
-      <c r="G36" t="n">
+      <c r="F36">
         <v>628</v>
       </c>
-      <c r="H36" t="n">
+      <c r="G36">
         <v>933</v>
       </c>
-      <c r="I36" t="n">
+      <c r="H36">
         <v>791</v>
       </c>
-      <c r="J36" t="n">
+      <c r="I36">
         <v>1635</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Ohio</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
         <v>238292</v>
       </c>
-      <c r="D37" t="n">
+      <c r="C37">
         <v>50870</v>
       </c>
-      <c r="E37" t="n">
+      <c r="D37">
         <v>27661</v>
       </c>
-      <c r="F37" t="n">
+      <c r="E37">
         <v>71211</v>
       </c>
-      <c r="G37" t="n">
+      <c r="F37">
         <v>16995</v>
       </c>
-      <c r="H37" t="n">
+      <c r="G37">
         <v>21207</v>
       </c>
-      <c r="I37" t="n">
+      <c r="H37">
         <v>15639</v>
       </c>
-      <c r="J37" t="n">
+      <c r="I37">
         <v>34706</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Oklahoma</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38">
         <v>84170</v>
       </c>
-      <c r="D38" t="n">
+      <c r="C38">
         <v>11658</v>
       </c>
-      <c r="E38" t="n">
+      <c r="D38">
         <v>10850</v>
       </c>
-      <c r="F38" t="n">
+      <c r="E38">
         <v>14078</v>
       </c>
-      <c r="G38" t="n">
+      <c r="F38">
         <v>5580</v>
       </c>
-      <c r="H38" t="n">
+      <c r="G38">
         <v>9072</v>
       </c>
-      <c r="I38" t="n">
+      <c r="H38">
         <v>18098</v>
       </c>
-      <c r="J38" t="n">
+      <c r="I38">
         <v>14834</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Oregon</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39">
         <v>186281</v>
       </c>
-      <c r="D39" t="n">
+      <c r="C39">
         <v>41374</v>
       </c>
-      <c r="E39" t="n">
+      <c r="D39">
         <v>29101</v>
       </c>
-      <c r="F39" t="n">
+      <c r="E39">
         <v>20200</v>
       </c>
-      <c r="G39" t="n">
+      <c r="F39">
         <v>24535</v>
       </c>
-      <c r="H39" t="n">
+      <c r="G39">
         <v>20395</v>
       </c>
-      <c r="I39" t="n">
+      <c r="H39">
         <v>29485</v>
       </c>
-      <c r="J39" t="n">
+      <c r="I39">
         <v>21191</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Pennsylvania</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40">
         <v>402587</v>
       </c>
-      <c r="D40" t="n">
+      <c r="C40">
         <v>96606</v>
       </c>
-      <c r="E40" t="n">
+      <c r="D40">
         <v>33021</v>
       </c>
-      <c r="F40" t="n">
+      <c r="E40">
         <v>113389</v>
       </c>
-      <c r="G40" t="n">
+      <c r="F40">
         <v>12699</v>
       </c>
-      <c r="H40" t="n">
+      <c r="G40">
         <v>47429</v>
       </c>
-      <c r="I40" t="n">
+      <c r="H40">
         <v>44605</v>
       </c>
-      <c r="J40" t="n">
+      <c r="I40">
         <v>54838</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Rhode Island</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41">
         <v>36763</v>
       </c>
-      <c r="D41" t="n">
+      <c r="C41">
         <v>8228</v>
       </c>
-      <c r="E41" t="n">
+      <c r="D41">
         <v>4117</v>
       </c>
-      <c r="F41" t="n">
+      <c r="E41">
         <v>5645</v>
       </c>
-      <c r="G41" t="n">
+      <c r="F41">
         <v>1455</v>
       </c>
-      <c r="H41" t="n">
+      <c r="G41">
         <v>2658</v>
       </c>
-      <c r="I41" t="n">
+      <c r="H41">
         <v>1615</v>
       </c>
-      <c r="J41" t="n">
+      <c r="I41">
         <v>13045</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>South Carolina</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42">
         <v>75674</v>
       </c>
-      <c r="D42" t="n">
+      <c r="C42">
         <v>11706</v>
       </c>
-      <c r="E42" t="n">
+      <c r="D42">
         <v>15228</v>
       </c>
-      <c r="F42" t="n">
+      <c r="E42">
         <v>17961</v>
       </c>
-      <c r="G42" t="n">
+      <c r="F42">
         <v>4745</v>
       </c>
-      <c r="H42" t="n">
+      <c r="G42">
         <v>7162</v>
       </c>
-      <c r="I42" t="n">
+      <c r="H42">
         <v>7840</v>
       </c>
-      <c r="J42" t="n">
+      <c r="I42">
         <v>11032</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>South Dakota</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43">
         <v>10216</v>
       </c>
-      <c r="D43" t="n">
+      <c r="C43">
         <v>1570</v>
       </c>
-      <c r="E43" t="n">
+      <c r="D43">
         <v>1864</v>
       </c>
-      <c r="F43" t="n">
+      <c r="E43">
         <v>1433</v>
       </c>
-      <c r="G43" t="n">
+      <c r="F43">
         <v>696</v>
       </c>
-      <c r="H43" t="n">
+      <c r="G43">
         <v>1179</v>
       </c>
-      <c r="I43" t="n">
+      <c r="H43">
         <v>1002</v>
       </c>
-      <c r="J43" t="n">
+      <c r="I43">
         <v>2472</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Tennessee</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44">
         <v>113398</v>
       </c>
-      <c r="D44" t="n">
+      <c r="C44">
         <v>18313</v>
       </c>
-      <c r="E44" t="n">
+      <c r="D44">
         <v>14409</v>
       </c>
-      <c r="F44" t="n">
+      <c r="E44">
         <v>26619</v>
       </c>
-      <c r="G44" t="n">
+      <c r="F44">
         <v>6955</v>
       </c>
-      <c r="H44" t="n">
+      <c r="G44">
         <v>13245</v>
       </c>
-      <c r="I44" t="n">
+      <c r="H44">
         <v>11351</v>
       </c>
-      <c r="J44" t="n">
+      <c r="I44">
         <v>22506</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Texas</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45">
         <v>1110666</v>
       </c>
-      <c r="D45" t="n">
+      <c r="C45">
         <v>182477</v>
       </c>
-      <c r="E45" t="n">
+      <c r="D45">
         <v>137713</v>
       </c>
-      <c r="F45" t="n">
+      <c r="E45">
         <v>269327</v>
       </c>
-      <c r="G45" t="n">
+      <c r="F45">
         <v>37715</v>
       </c>
-      <c r="H45" t="n">
+      <c r="G45">
         <v>85332</v>
       </c>
-      <c r="I45" t="n">
+      <c r="H45">
         <v>227968</v>
       </c>
-      <c r="J45" t="n">
+      <c r="I45">
         <v>170134</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Utah</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46">
         <v>77748</v>
       </c>
-      <c r="D46" t="n">
+      <c r="C46">
         <v>16358</v>
       </c>
-      <c r="E46" t="n">
+      <c r="D46">
         <v>10657</v>
       </c>
-      <c r="F46" t="n">
+      <c r="E46">
         <v>7598</v>
       </c>
-      <c r="G46" t="n">
+      <c r="F46">
         <v>12782</v>
       </c>
-      <c r="H46" t="n">
+      <c r="G46">
         <v>7888</v>
       </c>
-      <c r="I46" t="n">
+      <c r="H46">
         <v>9338</v>
       </c>
-      <c r="J46" t="n">
+      <c r="I46">
         <v>13127</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Vermont</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47">
         <v>10463</v>
       </c>
-      <c r="D47" t="n">
+      <c r="C47">
         <v>2833</v>
       </c>
-      <c r="E47" t="n">
+      <c r="D47">
         <v>1035</v>
       </c>
-      <c r="F47" t="n">
+      <c r="E47">
         <v>1723</v>
       </c>
-      <c r="G47" t="n">
+      <c r="F47">
         <v>842</v>
       </c>
-      <c r="H47" t="n">
+      <c r="G47">
         <v>1271</v>
       </c>
-      <c r="I47" t="n">
+      <c r="H47">
         <v>1206</v>
       </c>
-      <c r="J47" t="n">
+      <c r="I47">
         <v>1553</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Virginia</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48">
         <v>522199</v>
       </c>
-      <c r="D48" t="n">
+      <c r="C48">
         <v>72585</v>
       </c>
-      <c r="E48" t="n">
+      <c r="D48">
         <v>90493</v>
       </c>
-      <c r="F48" t="n">
+      <c r="E48">
         <v>114471</v>
       </c>
-      <c r="G48" t="n">
+      <c r="F48">
         <v>20138</v>
       </c>
-      <c r="H48" t="n">
+      <c r="G48">
         <v>82006</v>
       </c>
-      <c r="I48" t="n">
+      <c r="H48">
         <v>59984</v>
       </c>
-      <c r="J48" t="n">
+      <c r="I48">
         <v>82522</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Washington</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49">
         <v>604251</v>
       </c>
-      <c r="D49" t="n">
+      <c r="C49">
         <v>120814</v>
       </c>
-      <c r="E49" t="n">
+      <c r="D49">
         <v>137083</v>
       </c>
-      <c r="F49" t="n">
+      <c r="E49">
         <v>68978</v>
       </c>
-      <c r="G49" t="n">
+      <c r="F49">
         <v>67597</v>
       </c>
-      <c r="H49" t="n">
+      <c r="G49">
         <v>80049</v>
       </c>
-      <c r="I49" t="n">
+      <c r="H49">
         <v>75843</v>
       </c>
-      <c r="J49" t="n">
+      <c r="I49">
         <v>53887</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>West Virginia</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50">
         <v>16465</v>
       </c>
-      <c r="D50" t="n">
+      <c r="C50">
         <v>3208</v>
       </c>
-      <c r="E50" t="n">
+      <c r="D50">
         <v>3059</v>
       </c>
-      <c r="F50" t="n">
+      <c r="E50">
         <v>3969</v>
       </c>
-      <c r="G50" t="n">
+      <c r="F50">
         <v>1159</v>
       </c>
-      <c r="H50" t="n">
+      <c r="G50">
         <v>1571</v>
       </c>
-      <c r="I50" t="n">
+      <c r="H50">
         <v>1104</v>
       </c>
-      <c r="J50" t="n">
+      <c r="I50">
         <v>2395</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Wisconsin</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51">
         <v>151513</v>
       </c>
-      <c r="D51" t="n">
+      <c r="C51">
         <v>21054</v>
       </c>
-      <c r="E51" t="n">
+      <c r="D51">
         <v>13158</v>
       </c>
-      <c r="F51" t="n">
+      <c r="E51">
         <v>25998</v>
       </c>
-      <c r="G51" t="n">
+      <c r="F51">
         <v>5967</v>
       </c>
-      <c r="H51" t="n">
+      <c r="G51">
         <v>10949</v>
       </c>
-      <c r="I51" t="n">
+      <c r="H51">
         <v>6191</v>
       </c>
-      <c r="J51" t="n">
+      <c r="I51">
         <v>68196</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Wyoming</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52">
         <v>6729</v>
       </c>
-      <c r="D52" t="n">
+      <c r="C52">
         <v>1340</v>
       </c>
-      <c r="E52" t="n">
+      <c r="D52">
         <v>1657</v>
       </c>
-      <c r="F52" t="n">
+      <c r="E52">
         <v>739</v>
       </c>
-      <c r="G52" t="n">
+      <c r="F52">
         <v>982</v>
       </c>
-      <c r="H52" t="n">
+      <c r="G52">
         <v>803</v>
       </c>
-      <c r="I52" t="n">
+      <c r="H52">
         <v>283</v>
       </c>
-      <c r="J52" t="n">
+      <c r="I52">
         <v>925</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Puerto Rico</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53">
         <v>10464</v>
       </c>
-      <c r="D53" t="n">
+      <c r="C53">
         <v>2751</v>
       </c>
-      <c r="E53" t="n">
+      <c r="D53">
         <v>445</v>
       </c>
-      <c r="F53" t="n">
+      <c r="E53">
         <v>5475</v>
       </c>
-      <c r="G53" t="n">
+      <c r="F53">
         <v>313</v>
       </c>
-      <c r="H53" t="n">
+      <c r="G53">
         <v>205</v>
       </c>
-      <c r="I53" t="n">
+      <c r="H53">
         <v>232</v>
       </c>
-      <c r="J53" t="n">
+      <c r="I53">
         <v>1043</v>
       </c>
     </row>
